--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="8570" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="8565" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="139">
   <si>
     <t>Result_col</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -835,12 +835,24 @@
     <t>./IATA vs ICAO Code.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>turn_around_time_upperlimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn_around_time_lowerlimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minutes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,22 +1382,22 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="8.4140625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="7.25" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="5.9140625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1443,7 +1455,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1486,7 +1498,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="2" customFormat="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="2" customFormat="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>13</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>14</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="2">
         <v>21</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="15">
       <c r="A14" s="4">
         <v>23</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>27</v>
       </c>
@@ -1666,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>30</v>
       </c>
@@ -1729,21 +1741,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="25.4140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="58.625" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
@@ -1771,7 +1783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>93</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="9" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>94</v>
       </c>
@@ -1793,7 +1805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>52</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="9" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
@@ -1817,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="9" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -1825,7 +1837,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="9" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>95</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="9" customFormat="1">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>54</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="9" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="9" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>121</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="9" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>122</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="8" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>96</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="8" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>78</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>79</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="8" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>113</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="8" customFormat="1">
       <c r="A20" s="8" t="s">
         <v>114</v>
       </c>
@@ -1951,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="9" customFormat="1">
       <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="9" customFormat="1">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
@@ -1975,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="9" customFormat="1">
       <c r="A24" s="9" t="s">
         <v>130</v>
       </c>
@@ -1986,7 +1998,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="9" customFormat="1">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -1997,7 +2009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="9" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>58</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="9" customFormat="1">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="9" customFormat="1">
       <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="9" customFormat="1">
       <c r="A29" s="9" t="s">
         <v>123</v>
       </c>
@@ -2041,7 +2053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="9" customFormat="1">
       <c r="A30" s="9" t="s">
         <v>124</v>
       </c>
@@ -2052,7 +2064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="8" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>98</v>
       </c>
@@ -2060,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="8" customFormat="1">
       <c r="A32" s="8" t="s">
         <v>99</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="8" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>61</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="8" customFormat="1">
       <c r="A34" s="8" t="s">
         <v>62</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="8" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>63</v>
       </c>
@@ -2095,7 +2107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="8" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>64</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="8" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>65</v>
       </c>
@@ -2117,7 +2129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="8" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>66</v>
       </c>
@@ -2128,7 +2140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="8" customFormat="1">
       <c r="A39" s="8" t="s">
         <v>90</v>
       </c>
@@ -2139,7 +2151,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="8" customFormat="1">
       <c r="A40" s="8" t="s">
         <v>91</v>
       </c>
@@ -2150,7 +2162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="9" customFormat="1">
       <c r="A41" s="9" t="s">
         <v>67</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" s="9" customFormat="1">
       <c r="A42" s="9" t="s">
         <v>68</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
         <v>100</v>
       </c>
@@ -2177,7 +2189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="9" customFormat="1">
       <c r="A44" s="9" t="s">
         <v>101</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="9" customFormat="1">
       <c r="A45" s="9" t="s">
         <v>102</v>
       </c>
@@ -2199,7 +2211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" s="9" customFormat="1">
       <c r="A46" s="9" t="s">
         <v>103</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" s="9" customFormat="1">
       <c r="A47" s="9" t="s">
         <v>104</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" s="9" customFormat="1">
       <c r="A48" s="9" t="s">
         <v>105</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" s="8" customFormat="1">
       <c r="A49" s="8" t="s">
         <v>106</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" s="8" customFormat="1">
       <c r="A50" s="8" t="s">
         <v>107</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" s="8" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>108</v>
       </c>
@@ -2259,7 +2271,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" s="8" customFormat="1">
       <c r="A52" s="8" t="s">
         <v>109</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" s="8" customFormat="1">
       <c r="A53" s="8" t="s">
         <v>110</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" s="8" customFormat="1">
       <c r="A54" s="8" t="s">
         <v>69</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" s="8" customFormat="1">
       <c r="A55" s="8" t="s">
         <v>111</v>
       </c>
@@ -2303,7 +2315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" s="8" customFormat="1">
       <c r="A56" s="8" t="s">
         <v>112</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" s="9" customFormat="1">
       <c r="A57" s="9" t="s">
         <v>125</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="9" customFormat="1">
       <c r="A58" s="9" t="s">
         <v>126</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" s="9" customFormat="1">
       <c r="A59" s="9" t="s">
         <v>127</v>
       </c>
@@ -2344,12 +2356,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" s="9" customFormat="1">
       <c r="A60" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B60" s="12">
-        <v>15</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="11">
+        <v>20</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="11">
+        <v>120</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -1744,7 +1744,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2093,7 +2093,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="8" customFormat="1">
@@ -2369,7 +2369,7 @@
         <v>136</v>
       </c>
       <c r="B61" s="11">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>138</v>
@@ -2380,7 +2380,7 @@
         <v>137</v>
       </c>
       <c r="B62" s="11">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>138</v>

--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -1744,7 +1744,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
